--- a/TICKET/DB.xlsx
+++ b/TICKET/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-135" windowWidth="20415" windowHeight="8460" activeTab="4"/>
+    <workbookView xWindow="-225" yWindow="-135" windowWidth="20415" windowHeight="8460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -792,9 +792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1177,6 +1177,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1185,7 +1186,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1287,6 +1288,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1294,9 +1296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T245"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11010,6 +11012,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11017,8 +11020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20405,5 +20408,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>